--- a/biology/Botanique/Cardinal_(cépage)/Cardinal_(cépage).xlsx
+++ b/biology/Botanique/Cardinal_(cépage)/Cardinal_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cardinal_(c%C3%A9page)</t>
+          <t>Cardinal_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cardinal est le seul cépage rouge de raisin de table cultivé en France. Il est connu sous la dénomination CAR. Il est, à l'origine, un croisement entre le Flame pinot gris et le Alphonse Lavallée très connu. Il provient de Californie et a été obtenu en 1939 par Elmer Snyder. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cardinal_(c%C3%A9page)</t>
+          <t>Cardinal_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques physiologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Débourrement tardif presque 2 semaines après le Chasselas.
 Très vigoureux : la taille courte est conseillée mais la longue est tolérée.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardinal_(c%C3%A9page)</t>
+          <t>Cardinal_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description des baies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses grappes sont grosses, coniques et assez lâches. Ses grains, sphérique et assez gros, sont enveloppés d'une peau moyennement épaisse. Ils renferment une chair ferme et très largement musquée.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cardinal_(c%C3%A9page)</t>
+          <t>Cardinal_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant les pays où il est cultivé, il se nomme : Apostoliatiko, Karaburnu Rannii, Kardinal, Rannii Carabournu.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cardinal_(c%C3%A9page)</t>
+          <t>Cardinal_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>http://www.jardivigne.com
 https://viticabrol.fr
